--- a/setup/static/assets/modelos/sorteio_helbor_torre1.xlsx
+++ b/setup/static/assets/modelos/sorteio_helbor_torre1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drili\OneDrive\Área de Trabalho\Sorteio Novo\Django\Sorteio Novo\Sorteio_Novo\setup\static\assets\modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7018FFC2-343D-4BB5-9E6C-D47D3A9663B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCC0811-3C49-4769-AF35-F68A7FB7CD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-40" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -324,6 +324,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -352,12 +358,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -695,15 +695,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:F8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="6" width="16.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="5.26953125" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="6" max="6" width="26.7265625" customWidth="1"/>
     <col min="7" max="7" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -745,54 +750,54 @@
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="12" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
@@ -1120,76 +1125,213 @@
       <c r="E64" s="10"/>
       <c r="F64" s="11"/>
     </row>
-    <row r="65" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C65" s="22"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="23"/>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C65" s="10"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="11"/>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C66" s="10"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="11"/>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C67" s="10"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="11"/>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C68" s="10"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="11"/>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C69" s="10"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="11"/>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C70" s="10"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="11"/>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C71" s="10"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="11"/>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C72" s="10"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="11"/>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C73" s="10"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="11"/>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C74" s="10"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="11"/>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C75" s="10"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="11"/>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C76" s="10"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="11"/>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C77" s="10"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="11"/>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C78" s="10"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="11"/>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C79" s="10"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="11"/>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C80" s="10"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="11"/>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C81" s="10"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="11"/>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C82" s="10"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="11"/>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C83" s="10"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="11"/>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C84" s="10"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="11"/>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C85" s="10"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="11"/>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C86" s="10"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="11"/>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C87" s="10"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="11"/>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C88" s="10"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="11"/>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C89" s="10"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="11"/>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C90" s="10"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="11"/>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C91" s="10"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="11"/>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C92" s="10"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="11"/>
+    </row>
+    <row r="93" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C93" s="12"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
+  <mergeCells count="173">
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C7:F7"/>
@@ -1214,37 +1356,124 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:F90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
